--- a/Documentation/Group 2 - Burndown Chart.xlsx
+++ b/Documentation/Group 2 - Burndown Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1715359\Source\Repos\Study-Application\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1715359\source\repos\Study-Application\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -646,28 +646,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9</c:v>
@@ -748,28 +748,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.125</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.375</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.625</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.75</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.875</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1950,7 +1950,7 @@
   <dimension ref="B1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,7 +2034,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="11">
         <v>2</v>
@@ -2058,11 +2058,11 @@
         <v>1</v>
       </c>
       <c r="K3" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -2347,35 +2347,35 @@
       </c>
       <c r="C12" s="25">
         <f>SUM(C2:C9)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="14">
         <f t="shared" ref="D12:K12" si="1">C12-SUM(D2:D9)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="14">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="14">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" s="14">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I12" s="14">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J12" s="14">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="1"/>
@@ -2388,35 +2388,35 @@
       </c>
       <c r="C13" s="20">
         <f>SUM(C2:C9)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="16">
         <f t="shared" ref="D13:K13" si="2">C13-($C$12/8)</f>
-        <v>34.125</v>
+        <v>35</v>
       </c>
       <c r="E13" s="16">
         <f t="shared" si="2"/>
-        <v>29.25</v>
+        <v>30</v>
       </c>
       <c r="F13" s="16">
         <f t="shared" si="2"/>
-        <v>24.375</v>
+        <v>25</v>
       </c>
       <c r="G13" s="16">
         <f t="shared" si="2"/>
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" si="2"/>
-        <v>14.625</v>
+        <v>15</v>
       </c>
       <c r="I13" s="16">
         <f t="shared" si="2"/>
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="2"/>
-        <v>4.875</v>
+        <v>5</v>
       </c>
       <c r="K13" s="17">
         <f t="shared" si="2"/>

--- a/Documentation/Group 2 - Burndown Chart.xlsx
+++ b/Documentation/Group 2 - Burndown Chart.xlsx
@@ -670,7 +670,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1950,7 +1950,7 @@
   <dimension ref="B1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2129,7 +2129,9 @@
       <c r="J5" s="12">
         <v>0</v>
       </c>
-      <c r="K5" s="13"/>
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2199,10 +2201,12 @@
       <c r="J7" s="12">
         <v>1</v>
       </c>
-      <c r="K7" s="13"/>
+      <c r="K7" s="13">
+        <v>1</v>
+      </c>
       <c r="L7" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -2233,7 +2237,9 @@
       <c r="J8" s="12">
         <v>0</v>
       </c>
-      <c r="K8" s="13"/>
+      <c r="K8" s="13">
+        <v>0</v>
+      </c>
       <c r="L8" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2267,10 +2273,12 @@
       <c r="J9" s="12">
         <v>2</v>
       </c>
-      <c r="K9" s="13"/>
+      <c r="K9" s="13">
+        <v>2</v>
+      </c>
       <c r="L9" s="24">
         <f>SUM(D9:K9)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2301,10 +2309,12 @@
       <c r="J10" s="9">
         <v>1</v>
       </c>
-      <c r="K10" s="10"/>
+      <c r="K10" s="10">
+        <v>2</v>
+      </c>
       <c r="L10" s="19">
         <f>SUM(D10:K10)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2335,10 +2345,12 @@
       <c r="J11" s="9">
         <v>1</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
       <c r="L11" s="19">
         <f>SUM(D11:K11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -2379,7 +2391,7 @@
       </c>
       <c r="K12" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
